--- a/GameBattle/GameBattle/Asset/Data/stage_goast.xlsx
+++ b/GameBattle/GameBattle/Asset/Data/stage_goast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameBattle\GameBattle\GameBattle\Asset\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{623EF526-DC4B-4B39-B7AD-46C13FF0A5E0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C7BBB17B-BC1E-4BC1-948A-8D329222E40E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8000" xr2:uid="{0DFA8E32-CCBF-4D8B-9107-3B337CEEC88E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7995" xr2:uid="{0DFA8E32-CCBF-4D8B-9107-3B337CEEC88E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,12 +386,12 @@
   <dimension ref="A1:CL45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="CK47" sqref="CK47"/>
+      <selection activeCell="A45" sqref="A45:CL45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>0</v>
       </c>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>0</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>0</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>0</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>0</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>0</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>0</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>0</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>0</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>0</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>0</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>0</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>0</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>0</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>0</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>0</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>0</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>0</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>0</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>0</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>0</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>0</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>0</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>0</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>0</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>0</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>0</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>0</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>0</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>0</v>
       </c>
@@ -11815,7 +11815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>0</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>0</v>
       </c>
@@ -12359,276 +12359,276 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BZ45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CD45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CF45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CG45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CH45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CI45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CJ45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CK45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CL45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
